--- a/media/templates/house_templates.xlsx
+++ b/media/templates/house_templates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -372,20 +372,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -402,9 +402,6 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/media/templates/house_templates.xlsx
+++ b/media/templates/house_templates.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>house_number</t>
   </si>
   <si>
@@ -33,7 +30,10 @@
     <t>deposit</t>
   </si>
   <si>
-    <t>meter_readings</t>
+    <t>house_type</t>
+  </si>
+  <si>
+    <t>meter_reading</t>
   </si>
 </sst>
 </file>
@@ -375,34 +375,34 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/media/templates/house_templates.xlsx
+++ b/media/templates/house_templates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>house_number</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>meter_reading</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +388,7 @@
     <col min="5" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,6 +406,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
